--- a/data/trans_bre/P20_1_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P20_1_R-Urba-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -581,22 +581,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>-4,95</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-2,39</t>
+          <t>-7,51</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,59%</t>
+          <t>-35,8%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-16,42%</t>
+          <t>-39,27%</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,71; 6,18</t>
+          <t>-18,13; 2,44</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-11,39; 3,68</t>
+          <t>-23,93; 0,86</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-48,84; 82,72</t>
+          <t>-76,01; 36,1</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-53,05; 35,6</t>
+          <t>-75,69; 9,53</t>
         </is>
       </c>
     </row>
@@ -641,22 +641,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,41</t>
+          <t>4,34</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,34</t>
+          <t>6,09</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>71,44%</t>
+          <t>39,05%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>10,77%</t>
+          <t>66,53%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,94; 13,03</t>
+          <t>-2,89; 12,2</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-11,84; 8,6</t>
+          <t>-1,47; 13,57</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,21; 207,56</t>
+          <t>-21,31; 169,46</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-55,44; 104,2</t>
+          <t>-13,69; 273,86</t>
         </is>
       </c>
     </row>
@@ -701,22 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>13,05</t>
+          <t>18,68</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,59</t>
+          <t>2,43</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>203,15%</t>
+          <t>467,82%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>15,7%</t>
+          <t>28,06%</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,54; 25,44</t>
+          <t>2,25; 33,78</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,55; 13,5</t>
+          <t>-11,88; 18,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-23,19; 1423,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-66,61; 326,21</t>
+          <t>-80,61; —</t>
         </is>
       </c>
     </row>
@@ -761,22 +761,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,21</t>
+          <t>1,22</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,42</t>
+          <t>-0,85</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>42,79%</t>
+          <t>10,45%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-3,19%</t>
+          <t>-6,12%</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,29 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 8,05</t>
+          <t>-5,71; 6,37</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,86; 4,0</t>
+          <t>-9,25; 4,47</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-10,8; 106,83</t>
+          <t>-35,38; 77,19</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-38,45; 39,5</t>
+          <t>-47,53; 44,75</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P20_1_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P20_1_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -579,179 +588,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-4,95</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-7,51</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-35,8%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-39,27%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-5.108892488036703</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-4.269949580862511</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>-0.3481567862411032</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>-0.2392070109220271</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-18,13; 2,44</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-23,93; 0,86</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-76,01; 36,1</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-75,69; 9,53</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-18.74977717110862</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-18.3862808524529</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>-0.7346008903723442</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.6642013237271859</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>2.420837166003062</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>4.51026038406573</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>0.3049348045656756</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>0.4064348552450128</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>4,34</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>6,09</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>39,05%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>66,53%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-2,89; 12,2</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-1,47; 13,57</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-21,31; 169,46</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-13,69; 273,86</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>4.724990621576442</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>6.311840730091367</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.3973758994318506</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0.6697517124180825</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>18,68</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>2,43</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>467,82%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>28,06%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-3.965384849805557</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-1.670379008842394</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.2472315829589287</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.1622551873718729</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>2,25; 33,78</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-11,88; 18,1</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-80,61; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>12.80230212140268</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>13.92802031635107</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>1.74168813435083</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>2.50194008246806</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -759,57 +716,117 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>1,22</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-0,85</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>10,45%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-6,12%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>18.53438604603149</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>3.003995535184847</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>4.484741181964751</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0.3366576502213305</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-5,71; 6,37</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-9,25; 4,47</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-35,38; 77,19</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-47,53; 44,75</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>2.252681184865669</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-11.48725952654451</v>
+      </c>
+      <c r="E11" s="6" t="inlineStr"/>
+      <c r="F11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>33.28162097817093</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>20.21410865554923</v>
+      </c>
+      <c r="E12" s="6" t="inlineStr"/>
+      <c r="F12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>1.379692339404939</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.8264491217896713</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.1117573693049226</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0.06146596372889402</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-6.238052507109469</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-7.119104747933299</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.3928450439089866</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.3825521281317267</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>6.437822407897574</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>6.516711394734398</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.7002035297329633</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.6725567302051082</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -817,13 +834,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
